--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.040821.xlsx_with_dialog_acts.xlsx
@@ -665,12 +665,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2391,12 +2391,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2543,12 +2543,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3341,12 +3341,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3379,12 +3379,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3949,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4519,12 +4519,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4823,12 +4823,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5283,12 +5283,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6043,12 +6043,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6309,12 +6309,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6347,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6575,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6613,12 +6613,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8601,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8909,12 +8909,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9023,12 +9023,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9217,12 +9217,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9255,12 +9255,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9975,12 +9975,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10127,12 +10127,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10583,12 +10583,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10811,12 +10811,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10849,12 +10849,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11189,12 +11189,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11227,12 +11227,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11265,12 +11265,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11303,12 +11303,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11607,12 +11607,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11683,12 +11683,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11915,12 +11915,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12105,12 +12105,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12451,12 +12451,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12489,12 +12489,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12641,12 +12641,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12755,12 +12755,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12869,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13363,12 +13363,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13439,12 +13439,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13553,12 +13553,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13591,12 +13591,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13629,12 +13629,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13895,12 +13895,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14085,12 +14085,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14617,12 +14617,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14883,12 +14883,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14959,12 +14959,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15347,12 +15347,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15461,12 +15461,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15575,12 +15575,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15613,12 +15613,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15879,12 +15879,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15993,12 +15993,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17099,12 +17099,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17213,12 +17213,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17673,12 +17673,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17749,12 +17749,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17825,12 +17825,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17939,12 +17939,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18167,12 +18167,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18433,12 +18433,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18585,12 +18585,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18623,12 +18623,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19117,12 +19117,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19573,12 +19573,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19649,12 +19649,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19915,12 +19915,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19953,12 +19953,12 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20979,12 +20979,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21815,12 +21815,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22081,12 +22081,12 @@
       <c r="H568" t="inlineStr"/>
       <c r="I568" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22233,12 +22233,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22347,12 +22347,12 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22499,12 +22499,12 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22575,12 +22575,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22841,12 +22841,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22917,12 +22917,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23335,12 +23335,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23487,12 +23487,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23791,12 +23791,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24057,12 +24057,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24095,12 +24095,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24209,12 +24209,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24437,12 +24437,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24513,12 +24513,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24627,12 +24627,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24855,12 +24855,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24969,12 +24969,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25083,12 +25083,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25121,12 +25121,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25729,12 +25729,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26151,12 +26151,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26189,12 +26189,12 @@
       <c r="H676" t="inlineStr"/>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26265,12 +26265,12 @@
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26303,12 +26303,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26645,12 +26645,12 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27215,12 +27215,12 @@
       <c r="H703" t="inlineStr"/>
       <c r="I703" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28777,12 +28777,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29499,12 +29499,12 @@
       <c r="H763" t="inlineStr"/>
       <c r="I763" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
